--- a/Oracle_SQL/09-05 기차예약 pjt/기차표_테이블_정의서1_최종.xlsx
+++ b/Oracle_SQL/09-05 기차예약 pjt/기차표_테이블_정의서1_최종.xlsx
@@ -14,7 +14,178 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="104">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="106">
+  <x:si>
+    <x:t>나이구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>age_gubun연령할인(할인율)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_tel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_age</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1단위당 ??원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>res_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100글자 서술 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ntc_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>seat_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ntc_title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sch_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sale_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ntc_visit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rep_text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIMESTAMP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25글자 서술 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reply(댓글)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ntc_text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seat(좌석)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Notice(게시판)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>st_distance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>age_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반석, 우등석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Train(기차)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uesr_tel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Client(고객)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>age_desc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인율</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Station(기차 역)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>default : null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>origin_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Schedule(시간표)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reservation(예약)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나이를 기준으로 할인 제공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>age_gubun 테이블 키값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비회원의 기본 나이값은 성인(20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작역, 도착역 거리*5000원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나이별 할인, 영아75%, 유아50%, 노인70%, 장애인50%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_name</x:t>
+  </x:si>
   <x:si>
     <x:t>nct_id</x:t>
   </x:si>
@@ -22,317 +193,152 @@
     <x:t>age_id</x:t>
   </x:si>
   <x:si>
+    <x:t>TYPE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>st_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sch_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>st_name</x:t>
+  </x:si>
+  <x:si>
     <x:t>나이 코드</x:t>
   </x:si>
   <x:si>
-    <x:t>user_tel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_age</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KEY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1단위당 ??원</x:t>
+    <x:t>역 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간표 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기차 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출발 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기차 코드</x:t>
   </x:si>
   <x:si>
     <x:t>flot</x:t>
   </x:si>
   <x:si>
-    <x:t>default : null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연령할인(할인율)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>res_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIMESTAMP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sch_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비회원의 기본 나이값은 성인(20)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ntc_title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rep_text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100글자 서술 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25글자 서술 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sale_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reply(댓글)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ntc_visit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ntc_text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ntc_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seat(좌석)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>seat_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Notice(게시판)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>st_distance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uesr_tel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반석, 우등석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나이별 할인, 영아75%, 유아50%, 노인70%, 장애인50%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>age_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Client(고객)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Train(기차)</x:t>
+    <x:t>테이블명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기준 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기차 종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFAULT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>age_per</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">NULL </x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e_st</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ntc_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>seat_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 역 거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반, VIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rep_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tr_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_pw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출발 역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>s_st</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할인 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도착 역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좌석 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>역 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좌석 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>null</x:t>
   </x:si>
   <x:si>
     <x:t>스케줄 가격, * 좌석 vip경우 10%더함</x:t>
   </x:si>
   <x:si>
-    <x:t>tr_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>역 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>st_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>st_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간표 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sch_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출발 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기차 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기차 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TYPE</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">NULL </x:t>
-  </x:si>
-  <x:si>
-    <x:t>역 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출발 역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도착 역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s_st</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEFAULT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rep_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ntc_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>e_st</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_pw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>seat_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기준 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 역 거리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌석 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좌석 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기차 종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Station(기차 역)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>origin_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Schedule(시간표)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나이를 기준으로 할인 제공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation(예약)</x:t>
+    <x:t>KTX-001, 무궁화-077, etc.</x:t>
   </x:si>
   <x:si>
     <x:t>KTX, ITX, SRT, 무궁화, 새마을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KTX-001, 무궁화-077, etc.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할인율</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작역, 도착역 거리*5000원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>age_desc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반, VIP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>age_per</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="10">
+  <x:fonts count="11">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -394,26 +400,16 @@
       <x:sz val="11"/>
       <x:color rgb="ffff0000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff808080"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff808080"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff808080"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ffff0000"/>
+    </x:font>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -528,7 +524,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="21">
+  <x:cellXfs count="22">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -674,19 +670,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
@@ -722,6 +705,32 @@
     <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle xfId="0" builtinId="0"/>
@@ -1443,8 +1452,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A2:I74"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A45" activeCellId="0" sqref="A45:A45"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="K34" activeCellId="0" sqref="K34:K34"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -1460,46 +1469,46 @@
   <x:sheetData>
     <x:row r="2" spans="1:9">
       <x:c r="A2" s="1" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B2" s="15" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C2" s="15"/>
-      <x:c r="D2" s="15"/>
-      <x:c r="E2" s="15"/>
-      <x:c r="F2" s="15"/>
-      <x:c r="G2" s="15"/>
-      <x:c r="H2" s="15"/>
-      <x:c r="I2" s="15"/>
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B2" s="20" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C2" s="20"/>
+      <x:c r="D2" s="20"/>
+      <x:c r="E2" s="20"/>
+      <x:c r="F2" s="20"/>
+      <x:c r="G2" s="20"/>
+      <x:c r="H2" s="20"/>
+      <x:c r="I2" s="20"/>
     </x:row>
     <x:row r="3" spans="1:9">
       <x:c r="A3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G3" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H3" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -1507,20 +1516,20 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E4" s="3">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F4" s="3"/>
       <x:c r="G4" s="9" t="s">
-        <x:v>80</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I4" s="3"/>
     </x:row>
@@ -1529,19 +1538,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>83</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E5" s="3">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F5" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G5" s="9"/>
       <x:c r="H5" s="11"/>
@@ -1552,20 +1561,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E6" s="3">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F6" s="3"/>
       <x:c r="G6" s="9" t="s">
-        <x:v>80</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H6" s="11"/>
       <x:c r="I6" s="3"/>
@@ -1575,13 +1584,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B7" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>3</x:v>
@@ -1592,7 +1601,7 @@
       </x:c>
       <x:c r="H7" s="12"/>
       <x:c r="I7" s="9" t="s">
-        <x:v>28</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -1600,66 +1609,91 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E8" s="3">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F8" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G8" s="9"/>
       <x:c r="H8" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
+    </x:row>
+    <x:row r="9" spans="1:9">
+      <x:c r="A9" s="3">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B9" s="3" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D9" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E9" s="3">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F9" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G9" s="9"/>
+      <x:c r="H9" s="11"/>
+      <x:c r="I9" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="1" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B11" s="15" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C11" s="15"/>
-      <x:c r="D11" s="15"/>
-      <x:c r="E11" s="15"/>
-      <x:c r="F11" s="15"/>
-      <x:c r="G11" s="15"/>
-      <x:c r="H11" s="15"/>
-      <x:c r="I11" s="15"/>
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B11" s="20" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C11" s="20"/>
+      <x:c r="D11" s="20"/>
+      <x:c r="E11" s="20"/>
+      <x:c r="F11" s="20"/>
+      <x:c r="G11" s="20"/>
+      <x:c r="H11" s="20"/>
+      <x:c r="I11" s="20"/>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E12" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F12" s="2"/>
       <x:c r="G12" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H12" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I12" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -1667,23 +1701,23 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D13" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E13" s="3">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F13" s="9"/>
       <x:c r="G13" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H13" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I13" s="3"/>
     </x:row>
@@ -1692,20 +1726,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>67</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D14" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E14" s="3">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F14" s="9"/>
       <x:c r="G14" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H14" s="3"/>
       <x:c r="I14" s="3"/>
@@ -1715,64 +1749,64 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B15" s="7" t="s">
-        <x:v>41</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D15" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E15" s="7">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F15" s="9"/>
       <x:c r="G15" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H15" s="7"/>
       <x:c r="I15" s="7"/>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="1" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B18" s="15" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C18" s="15"/>
-      <x:c r="D18" s="15"/>
-      <x:c r="E18" s="15"/>
-      <x:c r="F18" s="15"/>
-      <x:c r="G18" s="15"/>
-      <x:c r="H18" s="15"/>
-      <x:c r="I18" s="15"/>
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B18" s="20" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C18" s="20"/>
+      <x:c r="D18" s="20"/>
+      <x:c r="E18" s="20"/>
+      <x:c r="F18" s="20"/>
+      <x:c r="G18" s="20"/>
+      <x:c r="H18" s="20"/>
+      <x:c r="I18" s="20"/>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E19" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F19" s="2"/>
       <x:c r="G19" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H19" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I19" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1780,23 +1814,23 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D20" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F20" s="9"/>
       <x:c r="G20" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H20" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I20" s="3"/>
     </x:row>
@@ -1805,24 +1839,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D21" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F21" s="9"/>
       <x:c r="G21" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H21" s="3"/>
       <x:c r="I21" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1830,74 +1864,74 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B22" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C22" s="6" t="s">
-        <x:v>90</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D22" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E22" s="6">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F22" s="9"/>
       <x:c r="G22" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H22" s="6"/>
       <x:c r="I22" s="6" t="s">
-        <x:v>96</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="3:9">
       <x:c r="C23" t="s">
-        <x:v>100</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I23" t="s">
-        <x:v>19</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="1" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B25" s="15" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C25" s="15"/>
-      <x:c r="D25" s="15"/>
-      <x:c r="E25" s="15"/>
-      <x:c r="F25" s="15"/>
-      <x:c r="G25" s="15"/>
-      <x:c r="H25" s="15"/>
-      <x:c r="I25" s="15"/>
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B25" s="20" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C25" s="20"/>
+      <x:c r="D25" s="20"/>
+      <x:c r="E25" s="20"/>
+      <x:c r="F25" s="20"/>
+      <x:c r="G25" s="20"/>
+      <x:c r="H25" s="20"/>
+      <x:c r="I25" s="20"/>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E26" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F26" s="2"/>
       <x:c r="G26" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H26" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I26" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1905,23 +1939,23 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B27" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C27" s="7" t="s">
-        <x:v>87</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D27" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E27" s="7">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F27" s="9"/>
       <x:c r="G27" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H27" s="7" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I27" s="7"/>
     </x:row>
@@ -1930,24 +1964,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B28" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="7" t="s">
-        <x:v>88</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D28" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E28" s="7">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F28" s="9"/>
       <x:c r="G28" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H28" s="7"/>
       <x:c r="I28" s="7" t="s">
-        <x:v>43</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1963,44 +1997,44 @@
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B31" s="15" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="C31" s="15"/>
-      <x:c r="D31" s="15"/>
-      <x:c r="E31" s="15"/>
-      <x:c r="F31" s="15"/>
-      <x:c r="G31" s="15"/>
-      <x:c r="H31" s="15"/>
-      <x:c r="I31" s="15"/>
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B31" s="20" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C31" s="20"/>
+      <x:c r="D31" s="20"/>
+      <x:c r="E31" s="20"/>
+      <x:c r="F31" s="20"/>
+      <x:c r="G31" s="20"/>
+      <x:c r="H31" s="20"/>
+      <x:c r="I31" s="20"/>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E32" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F32" s="2"/>
       <x:c r="G32" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H32" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I32" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -2008,23 +2042,23 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B33" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D33" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F33" s="9"/>
       <x:c r="G33" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H33" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I33" s="3"/>
     </x:row>
@@ -2033,18 +2067,18 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B34" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D34" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E34" s="3"/>
       <x:c r="F34" s="9"/>
       <x:c r="G34" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H34" s="3"/>
       <x:c r="I34" s="3"/>
@@ -2054,23 +2088,23 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B35" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C35" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D35" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E35" s="3">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F35" s="9"/>
       <x:c r="G35" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H35" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I35" s="3"/>
     </x:row>
@@ -2079,23 +2113,23 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B36" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C36" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D36" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E36" s="3">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F36" s="9"/>
       <x:c r="G36" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H36" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I36" s="3"/>
     </x:row>
@@ -2104,49 +2138,49 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B37" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C37" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D37" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F37" s="9"/>
       <x:c r="G37" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H37" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I37" s="3"/>
+    </x:row>
+    <x:row r="38" spans="1:9">
+      <x:c r="A38" s="16">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H37" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="I37" s="3"/>
-    </x:row>
-    <x:row r="38" spans="1:9">
-      <x:c r="A38" s="17">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B38" s="18" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C38" s="18" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="D38" s="18" t="s">
+      <x:c r="B38" s="17" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C38" s="17" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D38" s="17" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E38" s="17">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F38" s="17"/>
+      <x:c r="G38" s="17" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H38" s="18"/>
+      <x:c r="I38" s="16" t="s">
         <x:v>53</x:v>
-      </x:c>
-      <x:c r="E38" s="18">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F38" s="18"/>
-      <x:c r="G38" s="18" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H38" s="19"/>
-      <x:c r="I38" s="17" t="s">
-        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
@@ -2162,44 +2196,44 @@
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B41" s="15" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C41" s="15"/>
-      <x:c r="D41" s="15"/>
-      <x:c r="E41" s="15"/>
-      <x:c r="F41" s="15"/>
-      <x:c r="G41" s="15"/>
-      <x:c r="H41" s="15"/>
-      <x:c r="I41" s="15"/>
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B41" s="20" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C41" s="20"/>
+      <x:c r="D41" s="20"/>
+      <x:c r="E41" s="20"/>
+      <x:c r="F41" s="20"/>
+      <x:c r="G41" s="20"/>
+      <x:c r="H41" s="20"/>
+      <x:c r="I41" s="20"/>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E42" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F42" s="2"/>
       <x:c r="G42" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H42" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I42" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -2207,23 +2241,23 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B43" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C43" s="10" t="s">
-        <x:v>54</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D43" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E43" s="10">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F43" s="10"/>
       <x:c r="G43" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H43" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I43" s="10"/>
     </x:row>
@@ -2232,23 +2266,23 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B44" s="10" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C44" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D44" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E44" s="10">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F44" s="10"/>
       <x:c r="G44" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H44" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I44" s="10"/>
     </x:row>
@@ -2257,18 +2291,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B45" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C45" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D45" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E45" s="10"/>
       <x:c r="F45" s="10"/>
       <x:c r="G45" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H45" s="10"/>
       <x:c r="I45" s="10"/>
@@ -2278,24 +2312,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B46" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C46" s="4" t="s">
-        <x:v>87</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D46" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E46" s="7">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F46" s="9"/>
       <x:c r="G46" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H46" s="5"/>
       <x:c r="I46" s="5" t="s">
-        <x:v>102</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -2303,49 +2337,49 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B47" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C47" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D47" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E47" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F47" s="4"/>
       <x:c r="G47" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H47" s="5"/>
-      <x:c r="I47" s="20" t="s">
-        <x:v>48</x:v>
+      <x:c r="I47" s="19" t="s">
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="4">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B48" s="17" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="C48" s="17" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D48" s="17" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E48" s="17">
+      <x:c r="B48" s="16" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C48" s="16" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D48" s="16" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E48" s="16">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F48" s="4"/>
       <x:c r="G48" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H48" s="5"/>
       <x:c r="I48" s="10" t="s">
-        <x:v>94</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9" s="13" customFormat="1">
@@ -2353,20 +2387,20 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B49" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C49" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D49" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E49" s="4">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F49" s="4"/>
       <x:c r="G49" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H49" s="5"/>
       <x:c r="I49" s="5"/>
@@ -2393,44 +2427,44 @@
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B52" s="15" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C52" s="15"/>
-      <x:c r="D52" s="15"/>
-      <x:c r="E52" s="15"/>
-      <x:c r="F52" s="15"/>
-      <x:c r="G52" s="15"/>
-      <x:c r="H52" s="15"/>
-      <x:c r="I52" s="15"/>
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B52" s="20" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C52" s="20"/>
+      <x:c r="D52" s="20"/>
+      <x:c r="E52" s="20"/>
+      <x:c r="F52" s="20"/>
+      <x:c r="G52" s="20"/>
+      <x:c r="H52" s="20"/>
+      <x:c r="I52" s="20"/>
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B53" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C53" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D53" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E53" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F53" s="2"/>
       <x:c r="G53" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H53" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I53" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2438,23 +2472,23 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B54" s="9" t="s">
-        <x:v>78</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C54" s="9" t="s">
-        <x:v>74</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D54" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E54" s="9">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F54" s="9"/>
       <x:c r="G54" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H54" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I54" s="9"/>
     </x:row>
@@ -2463,23 +2497,23 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B55" s="9" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C55" s="9" t="s">
-        <x:v>54</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D55" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E55" s="9">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F55" s="9"/>
       <x:c r="G55" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H55" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I55" s="9"/>
     </x:row>
@@ -2488,24 +2522,24 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B56" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C56" s="9" t="s">
-        <x:v>17</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D56" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E56" s="9">
         <x:v>50</x:v>
       </x:c>
       <x:c r="F56" s="9"/>
       <x:c r="G56" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H56" s="9"/>
       <x:c r="I56" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2513,24 +2547,24 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B57" s="9" t="s">
-        <x:v>36</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C57" s="9" t="s">
-        <x:v>15</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D57" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E57" s="9">
         <x:v>200</x:v>
       </x:c>
       <x:c r="F57" s="9"/>
       <x:c r="G57" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H57" s="9"/>
       <x:c r="I57" s="9" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2538,18 +2572,18 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B58" s="9" t="s">
-        <x:v>37</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C58" s="4" t="s">
-        <x:v>79</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D58" s="9" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E58" s="9"/>
       <x:c r="F58" s="9"/>
       <x:c r="G58" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H58" s="9"/>
       <x:c r="I58" s="9"/>
@@ -2559,64 +2593,64 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B59" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C59" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D59" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E59" s="4">
         <x:v>4</x:v>
       </x:c>
       <x:c r="F59" s="5"/>
       <x:c r="G59" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H59" s="5"/>
       <x:c r="I59" s="5"/>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="1" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B62" s="15" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C62" s="15"/>
-      <x:c r="D62" s="15"/>
-      <x:c r="E62" s="15"/>
-      <x:c r="F62" s="15"/>
-      <x:c r="G62" s="15"/>
-      <x:c r="H62" s="15"/>
-      <x:c r="I62" s="15"/>
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B62" s="20" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C62" s="20"/>
+      <x:c r="D62" s="20"/>
+      <x:c r="E62" s="20"/>
+      <x:c r="F62" s="20"/>
+      <x:c r="G62" s="20"/>
+      <x:c r="H62" s="20"/>
+      <x:c r="I62" s="20"/>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B63" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C63" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D63" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E63" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F63" s="2"/>
       <x:c r="G63" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H63" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I63" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2624,23 +2658,23 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B64" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C64" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D64" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E64" s="3">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F64" s="3"/>
       <x:c r="G64" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H64" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I64" s="4"/>
     </x:row>
@@ -2649,23 +2683,23 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B65" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C65" s="9" t="s">
-        <x:v>81</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D65" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E65" s="9">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F65" s="9"/>
       <x:c r="G65" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H65" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I65" s="9"/>
     </x:row>
@@ -2674,66 +2708,66 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B66" s="9" t="s">
-        <x:v>30</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C66" s="9" t="s">
-        <x:v>15</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D66" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E66" s="9">
         <x:v>200</x:v>
       </x:c>
       <x:c r="F66" s="9"/>
       <x:c r="G66" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H66" s="9"/>
       <x:c r="I66" s="9" t="s">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:9">
       <x:c r="A69" s="1" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B69" s="15" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C69" s="15"/>
-      <x:c r="D69" s="15"/>
-      <x:c r="E69" s="15"/>
-      <x:c r="F69" s="15"/>
-      <x:c r="G69" s="15"/>
-      <x:c r="H69" s="15"/>
-      <x:c r="I69" s="15"/>
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B69" s="20" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C69" s="20"/>
+      <x:c r="D69" s="20"/>
+      <x:c r="E69" s="20"/>
+      <x:c r="F69" s="20"/>
+      <x:c r="G69" s="20"/>
+      <x:c r="H69" s="20"/>
+      <x:c r="I69" s="20"/>
     </x:row>
     <x:row r="70" spans="1:9">
       <x:c r="A70" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B70" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C70" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D70" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E70" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F70" s="2"/>
       <x:c r="G70" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H70" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I70" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:9">
@@ -2741,23 +2775,23 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B71" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C71" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D71" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E71" s="3">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F71" s="3"/>
       <x:c r="G71" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H71" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I71" s="4"/>
     </x:row>
@@ -2766,20 +2800,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B72" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C72" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D72" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E72" s="3">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F72" s="3"/>
       <x:c r="G72" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H72" s="3"/>
       <x:c r="I72" s="3"/>
@@ -2789,22 +2823,22 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B73" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C73" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D73" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E73" s="3">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E73" s="21">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F73" s="3"/>
       <x:c r="G73" s="3"/>
       <x:c r="H73" s="3"/>
-      <x:c r="I73" s="16" t="s">
-        <x:v>44</x:v>
+      <x:c r="I73" s="15" t="s">
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:9">
@@ -2812,13 +2846,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B74" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C74" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D74" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E74" s="3">
         <x:v>50</x:v>
@@ -2827,7 +2861,7 @@
       <x:c r="G74" s="3"/>
       <x:c r="H74" s="3"/>
       <x:c r="I74" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2842,7 +2876,7 @@
     <x:mergeCell ref="B25:I25"/>
     <x:mergeCell ref="B69:I69"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>